--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT089-001 - Laporan Keuangan - Arus Kas - Cetak Laporan Keuangan Arus Kas Konsolidasi Harian.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT089-001 - Laporan Keuangan - Arus Kas - Cetak Laporan Keuangan Arus Kas Konsolidasi Harian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDAA611-F17A-4517-A260-7068638EB2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71C431-C7FE-44DA-9A53-4E02876033EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,19 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>Username : 33599,
+    <t>DPLKAKT089-001</t>
+  </si>
+  <si>
+    <t>Cetak Laporan KeuanganArus Kas Konsolidasi Harian</t>
+  </si>
+  <si>
+    <t>Report dapat dicetak dengan baik</t>
+  </si>
+  <si>
+    <t>aruskas</t>
+  </si>
+  <si>
+    <t>Username : 44912,
 Password : bni1234,
 Cetak Laporan PDF,
 Nama Laporan : Arus Kas,
@@ -116,18 +128,6 @@
 Status Posting : Posting ,
 Tanggal Transaksi : 01/08/2022,
 Tanggal Pembanding : 01/08/2022</t>
-  </si>
-  <si>
-    <t>DPLKAKT089-001</t>
-  </si>
-  <si>
-    <t>Cetak Laporan KeuanganArus Kas Konsolidasi Harian</t>
-  </si>
-  <si>
-    <t>Report dapat dicetak dengan baik</t>
-  </si>
-  <si>
-    <t>aruskas</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,22 +626,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4">
-        <v>33599</v>
+        <v>44912</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>26</v>
